--- a/data/trans_media/Q17H_A-Edad-trans_media.xlsx
+++ b/data/trans_media/Q17H_A-Edad-trans_media.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 0,99</t>
+          <t>0,73; 1,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 0,65</t>
+          <t>0,43; 0,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,48</t>
+          <t>0,3; 0,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 0,8</t>
+          <t>0,62; 0,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,59</t>
+          <t>0,44; 0,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,08</t>
+          <t>0,7; 1,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 0,57</t>
+          <t>0,39; 0,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,45</t>
+          <t>0,28; 0,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 0,88</t>
+          <t>0,71; 0,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 0,76</t>
+          <t>0,54; 0,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 1,45</t>
+          <t>0,95; 1,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,01</t>
+          <t>0,71; 1,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 0,81</t>
+          <t>0,55; 0,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,06</t>
+          <t>0,79; 1,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 0,69</t>
+          <t>0,52; 0,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,23</t>
+          <t>0,8; 1,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,04</t>
+          <t>0,68; 1,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,07</t>
+          <t>0,46; 1,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 0,86</t>
+          <t>0,61; 0,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 0,93</t>
+          <t>0,61; 0,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1125,12 +1125,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 0,92</t>
+          <t>0,48; 0,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,13</t>
+          <t>0,56; 1,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,41</t>
+          <t>0,15; 0,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,7</t>
+          <t>0,45; 0,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1235,12 +1235,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,62</t>
+          <t>0,2; 0,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,51</t>
+          <t>0,17; 0,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,35</t>
+          <t>0,16; 0,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,27</t>
+          <t>0,11; 0,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,4</t>
+          <t>0,2; 0,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,32</t>
+          <t>0,15; 0,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 0,8</t>
+          <t>0,66; 0,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,53</t>
+          <t>0,43; 0,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,51; 0,6</t>
+          <t>0,5; 0,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
